--- a/src/test.demoApi/resources/testData/demoData.xlsx
+++ b/src/test.demoApi/resources/testData/demoData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aturuk\IdeaProjects\mtf-automation-testing-api\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mthomas\Documents\mtf-dm-automation-test-api\src\test.demoApi\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8831416E-2501-4279-88D8-394C2838D112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6D0137-82C6-47A8-BC54-27DD9DC6E67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3FAEF57A-74CB-4873-83C5-7175CED35448}"/>
+    <workbookView xWindow="3036" yWindow="2664" windowWidth="17280" windowHeight="8880" xr2:uid="{3FAEF57A-74CB-4873-83C5-7175CED35448}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>SU-TC001</t>
   </si>
@@ -201,6 +201,18 @@
   </si>
   <si>
     <t>SECOND</t>
+  </si>
+  <si>
+    <t>STATUS_CODE</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -252,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -261,6 +273,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E585723F-DA52-4C5A-A7AB-E6B3EDE8D02A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -586,9 +599,11 @@
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="21.77734375" customWidth="1"/>
     <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -598,8 +613,14 @@
       <c r="C1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -609,8 +630,14 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -620,8 +647,14 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -631,8 +664,14 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -641,6 +680,12 @@
       </c>
       <c r="C5" t="s">
         <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -653,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2BE7BE-A976-41FA-902B-902773C98133}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/src/test.demoApi/resources/testData/demoData.xlsx
+++ b/src/test.demoApi/resources/testData/demoData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mthomas\Documents\mtf-dm-automation-test-api\src\test.demoApi\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fosman\IdeaProjects\mtf-dm-automation-test-api\src\test.demoApi\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6D0137-82C6-47A8-BC54-27DD9DC6E67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3546B9-63D9-4988-8D7D-F48B3BF177C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="2664" windowWidth="17280" windowHeight="8880" xr2:uid="{3FAEF57A-74CB-4873-83C5-7175CED35448}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{3FAEF57A-74CB-4873-83C5-7175CED35448}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Update-PATCH" sheetId="7" r:id="rId3"/>
     <sheet name="Delete" sheetId="8" r:id="rId4"/>
     <sheet name="Single Resource" sheetId="5" r:id="rId5"/>
-    <sheet name="List users" sheetId="2" r:id="rId6"/>
+    <sheet name="List-Users" sheetId="2" r:id="rId6"/>
     <sheet name="Single User" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>SU-TC001</t>
   </si>
@@ -65,15 +65,6 @@
     <t>LU-TC001</t>
   </si>
   <si>
-    <t>LU-TC002</t>
-  </si>
-  <si>
-    <t>LU-TC003</t>
-  </si>
-  <si>
-    <t>LU-TC004</t>
-  </si>
-  <si>
     <t>SR-TC001</t>
   </si>
   <si>
@@ -128,30 +119,12 @@
     <t>U-PUT-TC001</t>
   </si>
   <si>
-    <t>U-PUT-TC002</t>
-  </si>
-  <si>
-    <t>U-PUT-TC003</t>
-  </si>
-  <si>
     <t>ManagerUpdated</t>
   </si>
   <si>
-    <t>EmployeeUpdated</t>
-  </si>
-  <si>
-    <t>accounts payable Updated</t>
-  </si>
-  <si>
     <t>UserNameUpdatedA</t>
   </si>
   <si>
-    <t>UserNameUpdatedB</t>
-  </si>
-  <si>
-    <t>UserNameUpdatedC</t>
-  </si>
-  <si>
     <t>U-PATCH-TC001</t>
   </si>
   <si>
@@ -180,15 +153,6 @@
   </si>
   <si>
     <t>DEL-TC001</t>
-  </si>
-  <si>
-    <t>DEL-TC002</t>
-  </si>
-  <si>
-    <t>DEL-TC003</t>
-  </si>
-  <si>
-    <t>DEL-TC004</t>
   </si>
   <si>
     <t>UPDATE</t>
@@ -590,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E585723F-DA52-4C5A-A7AB-E6B3EDE8D02A}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -600,7 +564,7 @@
     <col min="2" max="2" width="21.77734375" customWidth="1"/>
     <col min="3" max="3" width="18.88671875" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -608,84 +572,84 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -696,10 +660,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2BE7BE-A976-41FA-902B-902773C98133}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -718,52 +682,24 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -776,7 +712,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -795,64 +731,64 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -862,10 +798,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50E52F6-8B80-4F1F-B094-BAFB5253F689}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -884,34 +820,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -942,7 +854,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -950,7 +862,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -958,7 +870,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -966,7 +878,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -982,7 +894,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1007,31 +919,17 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
